--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,39 +52,27 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -94,88 +82,94 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
@@ -184,16 +178,7 @@
     <t>important</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>give</t>
   </si>
   <si>
     <t>share</t>
@@ -575,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -686,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7692307692307693</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,7 +800,7 @@
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>0.8846153846153846</v>
@@ -844,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6896551724137931</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5897435897435898</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5789473684210527</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8448275862068966</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="M9">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4871794871794872</v>
+        <v>0.3449612403100775</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.828125</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3430232558139535</v>
+        <v>0.3355704697986577</v>
       </c>
       <c r="C11">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>339</v>
+        <v>99</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8170731707317073</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3389830508474576</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.7872340425531915</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3355704697986577</v>
+        <v>0.2751322751322751</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.7746478873239436</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="M13">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3246753246753247</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.7666666666666667</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L14">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,13 +1229,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.32</v>
+        <v>0.0938337801608579</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,262 +1247,166 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>51</v>
+        <v>338</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.7547169811320755</v>
+      </c>
+      <c r="L15">
+        <v>80</v>
+      </c>
+      <c r="M15">
+        <v>80</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>0.75</v>
+      </c>
+      <c r="L16">
+        <v>21</v>
+      </c>
+      <c r="M16">
+        <v>21</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>0.746031746031746</v>
+      </c>
+      <c r="L17">
+        <v>47</v>
+      </c>
+      <c r="M17">
+        <v>47</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>0.7446808510638298</v>
+      </c>
+      <c r="L18">
+        <v>35</v>
+      </c>
+      <c r="M18">
+        <v>35</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K15">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L15">
+      <c r="K19">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L19">
+        <v>37</v>
+      </c>
+      <c r="M19">
+        <v>37</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M15">
-        <v>39</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3174603174603174</v>
-      </c>
-      <c r="C16">
-        <v>60</v>
-      </c>
-      <c r="D16">
-        <v>60</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>129</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16">
-        <v>0.746031746031746</v>
-      </c>
-      <c r="L16">
-        <v>47</v>
-      </c>
-      <c r="M16">
-        <v>47</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="C17">
-        <v>19</v>
-      </c>
-      <c r="D17">
-        <v>19</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>71</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="K20">
+        <v>0.71875</v>
+      </c>
+      <c r="L20">
+        <v>115</v>
+      </c>
+      <c r="M20">
+        <v>115</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="K17">
-        <v>0.7264150943396226</v>
-      </c>
-      <c r="L17">
-        <v>77</v>
-      </c>
-      <c r="M17">
-        <v>77</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.1706349206349206</v>
-      </c>
-      <c r="C18">
-        <v>43</v>
-      </c>
-      <c r="D18">
-        <v>43</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>209</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L18">
-        <v>19</v>
-      </c>
-      <c r="M18">
-        <v>19</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.08847184986595175</v>
-      </c>
-      <c r="C19">
-        <v>33</v>
-      </c>
-      <c r="D19">
-        <v>33</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>340</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.6944444444444444</v>
-      </c>
-      <c r="L19">
-        <v>25</v>
-      </c>
-      <c r="M19">
-        <v>25</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>0.6875</v>
-      </c>
-      <c r="L20">
-        <v>110</v>
-      </c>
-      <c r="M20">
-        <v>110</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="K21">
         <v>0.6702127659574468</v>
@@ -1541,278 +1430,278 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L22">
+        <v>32</v>
+      </c>
+      <c r="M22">
+        <v>32</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>0.6511627906976745</v>
+      </c>
+      <c r="L23">
+        <v>28</v>
+      </c>
+      <c r="M23">
+        <v>28</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="L24">
+        <v>23</v>
+      </c>
+      <c r="M24">
+        <v>23</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25">
+        <v>0.6266318537859008</v>
+      </c>
+      <c r="L25">
+        <v>240</v>
+      </c>
+      <c r="M25">
+        <v>240</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K22">
-        <v>0.625</v>
-      </c>
-      <c r="L22">
-        <v>30</v>
-      </c>
-      <c r="M22">
-        <v>30</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
+      <c r="K26">
+        <v>0.62</v>
+      </c>
+      <c r="L26">
+        <v>31</v>
+      </c>
+      <c r="M26">
+        <v>31</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K23">
-        <v>0.5900783289817232</v>
-      </c>
-      <c r="L23">
-        <v>226</v>
-      </c>
-      <c r="M23">
-        <v>226</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
+      <c r="K27">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="L27">
+        <v>49</v>
+      </c>
+      <c r="M27">
+        <v>49</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K24">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L24">
-        <v>28</v>
-      </c>
-      <c r="M24">
-        <v>28</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
+      <c r="K28">
+        <v>0.5323529411764706</v>
+      </c>
+      <c r="L28">
+        <v>181</v>
+      </c>
+      <c r="M28">
+        <v>181</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K25">
-        <v>0.5588235294117647</v>
-      </c>
-      <c r="L25">
-        <v>190</v>
-      </c>
-      <c r="M25">
-        <v>190</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="K29">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="L29">
         <v>150</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
+      <c r="M29">
+        <v>150</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K26">
-        <v>0.5280898876404494</v>
-      </c>
-      <c r="L26">
-        <v>47</v>
-      </c>
-      <c r="M26">
-        <v>47</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
+      <c r="K30">
+        <v>0.4769874476987448</v>
+      </c>
+      <c r="L30">
+        <v>114</v>
+      </c>
+      <c r="M30">
+        <v>114</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K27">
-        <v>0.525</v>
-      </c>
-      <c r="L27">
-        <v>21</v>
-      </c>
-      <c r="M27">
-        <v>21</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
+      <c r="K31">
+        <v>0.4769230769230769</v>
+      </c>
+      <c r="L31">
+        <v>31</v>
+      </c>
+      <c r="M31">
+        <v>31</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K28">
-        <v>0.5186440677966102</v>
-      </c>
-      <c r="L28">
-        <v>153</v>
-      </c>
-      <c r="M28">
-        <v>153</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29">
-        <v>0.4728033472803347</v>
-      </c>
-      <c r="L29">
-        <v>113</v>
-      </c>
-      <c r="M29">
-        <v>113</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30">
-        <v>0.4651162790697674</v>
-      </c>
-      <c r="L30">
-        <v>20</v>
-      </c>
-      <c r="M30">
-        <v>20</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31">
-        <v>0.4520547945205479</v>
-      </c>
-      <c r="L31">
-        <v>33</v>
-      </c>
-      <c r="M31">
-        <v>33</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K32">
-        <v>0.4222222222222222</v>
+        <v>0.453125</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1824,21 +1713,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.421875</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1850,21 +1739,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.3846153846153846</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1876,21 +1765,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.3846153846153846</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1902,21 +1791,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.3442622950819672</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1928,21 +1817,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.2857142857142857</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1954,21 +1843,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>50</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.09569377990430622</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L38">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1980,21 +1869,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.08413461538461539</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L39">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2006,21 +1895,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>381</v>
+        <v>833</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.06487695749440715</v>
+        <v>0.04439511653718091</v>
       </c>
       <c r="L40">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="M40">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2032,21 +1921,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>836</v>
+        <v>861</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.04994450610432852</v>
+        <v>0.02422145328719723</v>
       </c>
       <c r="L41">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2058,85 +1947,59 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>856</v>
+        <v>846</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.0265282583621684</v>
+        <v>0.02241943017281644</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>844</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.02618045815801777</v>
+        <v>0.01128304319793682</v>
       </c>
       <c r="L43">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N43">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="O43">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K44">
-        <v>0.01352657004830918</v>
-      </c>
-      <c r="L44">
-        <v>42</v>
-      </c>
-      <c r="M44">
-        <v>44</v>
-      </c>
-      <c r="N44">
-        <v>0.95</v>
-      </c>
-      <c r="O44">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>3063</v>
+        <v>3067</v>
       </c>
     </row>
   </sheetData>
